--- a/biology/Botanique/Astracantha_sicula/Astracantha_sicula.xlsx
+++ b/biology/Botanique/Astracantha_sicula/Astracantha_sicula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astracantha sicula, l'astragale de Sicile est une espèce de plantes endémiques de Sicile, de la famille des Fabaceae.
 On la trouve sous forme de coussinets épineux, clairsemés sur les pentes du versant Sud de l'Etna.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astragale de Sicile est une plante arbustive, formant des coussins épineux de 30-60 cm de haut et jusqu'à 2 m de diamètre.
 La feuille pennée est constituée de 6 à 12 paires de folioles; la foliole terminale est transformée en une fine pointe épineuse, piquante comme une aiguille.
@@ -546,7 +560,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette espèce sur le versant sud de l'Etna.
 Elle pousse sur les pentes arides de laves, à une altitude comprise entre 1 000 et 2 400 m. Elle est associée à une épine-vinette (Berberis aetnensis), une tanaisie (Tanacetum siculum), le genévrier (Juniperus communis) et le genêt de l'Etna (Genista aetnensis).
@@ -578,10 +594,12 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'IPNI[1]  considère Astragalus siculus comme le basionyme de Astracantha sicula (Biv.) Greuter.
-La distinction entre les Astracantha et les Astragalus a été proposée par le botaniste allemand Dieter Podlech en 1983, en se basant sur l'anatomie de l'épine. Mais cette distinction n'est pas retenue par toute la communauté botanique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'IPNI  considère Astragalus siculus comme le basionyme de Astracantha sicula (Biv.) Greuter.
+La distinction entre les Astracantha et les Astragalus a été proposée par le botaniste allemand Dieter Podlech en 1983, en se basant sur l'anatomie de l'épine. Mais cette distinction n'est pas retenue par toute la communauté botanique.
 </t>
         </is>
       </c>
